--- a/xls/cardsConfig.xlsx
+++ b/xls/cardsConfig.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="27765" windowHeight="13650"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="@球员表" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>id[.!][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -133,6 +133,22 @@
   </si>
   <si>
     <t>pos[][funcTupleInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLevel[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>initStar[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxStar[.][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -140,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,11 +168,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -173,6 +191,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,10 +221,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -571,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -588,11 +615,13 @@
     <col min="8" max="8" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="25.375" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="20.125" customWidth="1"/>
-    <col min="14" max="14" width="20.125" customWidth="1"/>
+    <col min="11" max="12" width="20.125" customWidth="1"/>
+    <col min="13" max="13" width="25.75" customWidth="1"/>
+    <col min="14" max="14" width="20.875" customWidth="1"/>
+    <col min="15" max="15" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,8 +652,17 @@
       <c r="K1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -658,20 +696,23 @@
       <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1001</v>
       </c>
@@ -706,13 +747,16 @@
         <v>22</v>
       </c>
       <c r="L3" s="2">
+        <v>100</v>
+      </c>
+      <c r="M3" s="2">
         <v>4</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1002</v>
       </c>
@@ -747,13 +791,16 @@
         <v>21</v>
       </c>
       <c r="L4" s="2">
+        <v>100</v>
+      </c>
+      <c r="M4" s="2">
         <v>4</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -765,6 +812,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/xls/cardsConfig.xlsx
+++ b/xls/cardsConfig.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FBG\Server\kbengine\fbgServer\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="27765" windowHeight="13650"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="@球员表" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>id[.!][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -45,9 +40,6 @@
     <t>steal[.][funcInt]</t>
   </si>
   <si>
-    <t>keep[.][funcInt]</t>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -149,6 +141,150 @@
   </si>
   <si>
     <t>maxStar[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tech[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>health[.][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵云</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄忠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>马超</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙策</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙尚香</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周瑜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙坚</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛亮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王朗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前锋主角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中场主角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后卫主角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,18,19,20,21,22,23,24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,9,10,12,13,14,15,16,18,19,20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,6,7,8,9,10,11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -232,74 +368,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -312,14 +380,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -354,7 +422,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,7 +457,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -614,14 +682,15 @@
     <col min="7" max="7" width="19.625" customWidth="1"/>
     <col min="8" max="8" width="22.75" customWidth="1"/>
     <col min="9" max="9" width="25.375" customWidth="1"/>
-    <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="12" width="20.125" customWidth="1"/>
-    <col min="13" max="13" width="25.75" customWidth="1"/>
-    <col min="14" max="14" width="20.875" customWidth="1"/>
-    <col min="15" max="15" width="20.125" customWidth="1"/>
+    <col min="10" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="30.75" customWidth="1"/>
+    <col min="14" max="14" width="20.125" customWidth="1"/>
+    <col min="15" max="15" width="25.75" customWidth="1"/>
+    <col min="16" max="16" width="20.875" customWidth="1"/>
+    <col min="17" max="17" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -644,80 +713,92 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
         <v>28</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
         <v>200</v>
@@ -743,25 +824,31 @@
       <c r="J3" s="2">
         <v>150</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
+      <c r="K3" s="2">
+        <v>0</v>
       </c>
       <c r="L3" s="2">
-        <v>100</v>
-      </c>
-      <c r="M3" s="2">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="N3" s="2">
+        <v>100</v>
+      </c>
+      <c r="O3" s="2">
+        <v>5</v>
+      </c>
+      <c r="P3" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2">
         <v>200</v>
@@ -787,37 +874,732 @@
       <c r="J4" s="2">
         <v>150</v>
       </c>
-      <c r="K4" s="2" t="s">
-        <v>21</v>
+      <c r="K4" s="2">
+        <v>0</v>
       </c>
       <c r="L4" s="2">
-        <v>100</v>
-      </c>
-      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="2">
+        <v>100</v>
+      </c>
+      <c r="O4" s="2">
+        <v>5</v>
+      </c>
+      <c r="P4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>5001</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2">
+        <v>200</v>
+      </c>
+      <c r="D5" s="2">
+        <v>100</v>
+      </c>
+      <c r="E5" s="2">
+        <v>100</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="2">
+        <v>100</v>
+      </c>
+      <c r="H5" s="2">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2">
+        <v>100</v>
+      </c>
+      <c r="J5" s="2">
+        <v>150</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" s="2">
+        <v>100</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
         <v>4</v>
       </c>
-      <c r="N4" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5002</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2">
+        <v>200</v>
+      </c>
+      <c r="D6" s="2">
+        <v>100</v>
+      </c>
+      <c r="E6" s="2">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2">
+        <v>100</v>
+      </c>
+      <c r="G6" s="2">
+        <v>100</v>
+      </c>
+      <c r="H6" s="2">
+        <v>100</v>
+      </c>
+      <c r="I6" s="2">
+        <v>100</v>
+      </c>
+      <c r="J6" s="2">
+        <v>150</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="2">
+        <v>100</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5003</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="2">
+        <v>200</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2">
+        <v>100</v>
+      </c>
+      <c r="F7" s="2">
+        <v>100</v>
+      </c>
+      <c r="G7" s="2">
+        <v>100</v>
+      </c>
+      <c r="H7" s="2">
+        <v>100</v>
+      </c>
+      <c r="I7" s="2">
+        <v>100</v>
+      </c>
+      <c r="J7" s="2">
+        <v>150</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="2">
+        <v>100</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5004</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2">
+        <v>100</v>
+      </c>
+      <c r="F8" s="2">
+        <v>100</v>
+      </c>
+      <c r="G8" s="2">
+        <v>100</v>
+      </c>
+      <c r="H8" s="2">
+        <v>100</v>
+      </c>
+      <c r="I8" s="2">
+        <v>100</v>
+      </c>
+      <c r="J8" s="2">
+        <v>150</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="2">
+        <v>100</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>5005</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="2">
+        <v>200</v>
+      </c>
+      <c r="D9" s="2">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2">
+        <v>100</v>
+      </c>
+      <c r="F9" s="2">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2">
+        <v>100</v>
+      </c>
+      <c r="H9" s="2">
+        <v>100</v>
+      </c>
+      <c r="I9" s="2">
+        <v>100</v>
+      </c>
+      <c r="J9" s="2">
+        <v>150</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="2">
+        <v>100</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>5006</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2">
+        <v>200</v>
+      </c>
+      <c r="D10" s="2">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2">
+        <v>100</v>
+      </c>
+      <c r="F10" s="2">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2">
+        <v>100</v>
+      </c>
+      <c r="H10" s="2">
+        <v>100</v>
+      </c>
+      <c r="I10" s="2">
+        <v>100</v>
+      </c>
+      <c r="J10" s="2">
+        <v>150</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="2">
+        <v>100</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>5007</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2">
+        <v>200</v>
+      </c>
+      <c r="D11" s="2">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2">
+        <v>100</v>
+      </c>
+      <c r="F11" s="2">
+        <v>100</v>
+      </c>
+      <c r="G11" s="2">
+        <v>100</v>
+      </c>
+      <c r="H11" s="2">
+        <v>100</v>
+      </c>
+      <c r="I11" s="2">
+        <v>100</v>
+      </c>
+      <c r="J11" s="2">
+        <v>150</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="2">
+        <v>100</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>5008</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2">
+        <v>200</v>
+      </c>
+      <c r="D12" s="2">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2">
+        <v>100</v>
+      </c>
+      <c r="F12" s="2">
+        <v>100</v>
+      </c>
+      <c r="G12" s="2">
+        <v>100</v>
+      </c>
+      <c r="H12" s="2">
+        <v>100</v>
+      </c>
+      <c r="I12" s="2">
+        <v>100</v>
+      </c>
+      <c r="J12" s="2">
+        <v>150</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="2">
+        <v>100</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2">
+        <v>200</v>
+      </c>
+      <c r="D13" s="2">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2">
+        <v>100</v>
+      </c>
+      <c r="F13" s="2">
+        <v>100</v>
+      </c>
+      <c r="G13" s="2">
+        <v>100</v>
+      </c>
+      <c r="H13" s="2">
+        <v>100</v>
+      </c>
+      <c r="I13" s="2">
+        <v>100</v>
+      </c>
+      <c r="J13" s="2">
+        <v>150</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="2">
+        <v>100</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>5010</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2">
+        <v>200</v>
+      </c>
+      <c r="D14" s="2">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2">
+        <v>100</v>
+      </c>
+      <c r="F14" s="2">
+        <v>100</v>
+      </c>
+      <c r="G14" s="2">
+        <v>100</v>
+      </c>
+      <c r="H14" s="2">
+        <v>100</v>
+      </c>
+      <c r="I14" s="2">
+        <v>100</v>
+      </c>
+      <c r="J14" s="2">
+        <v>150</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="2">
+        <v>100</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>5011</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="2">
+        <v>200</v>
+      </c>
+      <c r="D15" s="2">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2">
+        <v>100</v>
+      </c>
+      <c r="F15" s="2">
+        <v>100</v>
+      </c>
+      <c r="G15" s="2">
+        <v>100</v>
+      </c>
+      <c r="H15" s="2">
+        <v>100</v>
+      </c>
+      <c r="I15" s="2">
+        <v>100</v>
+      </c>
+      <c r="J15" s="2">
+        <v>150</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N15" s="2">
+        <v>100</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>6001</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="2">
+        <v>200</v>
+      </c>
+      <c r="D16" s="2">
+        <v>100</v>
+      </c>
+      <c r="E16" s="2">
+        <v>100</v>
+      </c>
+      <c r="F16" s="2">
+        <v>100</v>
+      </c>
+      <c r="G16" s="2">
+        <v>100</v>
+      </c>
+      <c r="H16" s="2">
+        <v>100</v>
+      </c>
+      <c r="I16" s="2">
+        <v>100</v>
+      </c>
+      <c r="J16" s="2">
+        <v>150</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N16" s="2">
+        <v>100</v>
+      </c>
+      <c r="O16" s="1">
+        <v>5</v>
+      </c>
+      <c r="P16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>6002</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="2">
+        <v>200</v>
+      </c>
+      <c r="D17" s="2">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2">
+        <v>100</v>
+      </c>
+      <c r="F17" s="2">
+        <v>100</v>
+      </c>
+      <c r="G17" s="2">
+        <v>100</v>
+      </c>
+      <c r="H17" s="2">
+        <v>100</v>
+      </c>
+      <c r="I17" s="2">
+        <v>100</v>
+      </c>
+      <c r="J17" s="2">
+        <v>150</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N17" s="2">
+        <v>100</v>
+      </c>
+      <c r="O17" s="1">
+        <v>5</v>
+      </c>
+      <c r="P17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>6003</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="2">
+        <v>200</v>
+      </c>
+      <c r="D18" s="2">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2">
+        <v>100</v>
+      </c>
+      <c r="F18" s="2">
+        <v>100</v>
+      </c>
+      <c r="G18" s="2">
+        <v>100</v>
+      </c>
+      <c r="H18" s="2">
+        <v>100</v>
+      </c>
+      <c r="I18" s="2">
+        <v>100</v>
+      </c>
+      <c r="J18" s="2">
+        <v>150</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N18" s="2">
+        <v>100</v>
+      </c>
+      <c r="O18" s="1">
+        <v>5</v>
+      </c>
+      <c r="P18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="N19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -839,7 +1621,7 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>

--- a/xls/cardsConfig.xlsx
+++ b/xls/cardsConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="144">
   <si>
     <t>id[.!][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -458,6 +458,30 @@
   </si>
   <si>
     <t>13,14,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>前锋主角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中场主角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后卫主角</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,18,19,20,21,22,23,24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,9,10,12,13,14,15,16,18,19,20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4,5,6,7,8,9,10,11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -823,10 +847,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+    <sheetView tabSelected="1" topLeftCell="C40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4592,6 +4616,156 @@
       </c>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
+    </row>
+    <row r="73" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>6001</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C73" s="1">
+        <v>200</v>
+      </c>
+      <c r="D73" s="1">
+        <v>100</v>
+      </c>
+      <c r="E73" s="1">
+        <v>100</v>
+      </c>
+      <c r="F73" s="1">
+        <v>100</v>
+      </c>
+      <c r="G73" s="1">
+        <v>100</v>
+      </c>
+      <c r="H73" s="1">
+        <v>100</v>
+      </c>
+      <c r="I73" s="1">
+        <v>100</v>
+      </c>
+      <c r="J73" s="1">
+        <v>150</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="N73" s="1">
+        <v>100</v>
+      </c>
+      <c r="O73" s="1">
+        <v>4</v>
+      </c>
+      <c r="P73" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>6002</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C74" s="1">
+        <v>200</v>
+      </c>
+      <c r="D74" s="1">
+        <v>100</v>
+      </c>
+      <c r="E74" s="1">
+        <v>100</v>
+      </c>
+      <c r="F74" s="1">
+        <v>100</v>
+      </c>
+      <c r="G74" s="1">
+        <v>100</v>
+      </c>
+      <c r="H74" s="1">
+        <v>100</v>
+      </c>
+      <c r="I74" s="1">
+        <v>100</v>
+      </c>
+      <c r="J74" s="1">
+        <v>150</v>
+      </c>
+      <c r="K74" s="1">
+        <v>0</v>
+      </c>
+      <c r="L74" s="1">
+        <v>0</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="N74" s="1">
+        <v>100</v>
+      </c>
+      <c r="O74" s="1">
+        <v>4</v>
+      </c>
+      <c r="P74" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>6003</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="1">
+        <v>200</v>
+      </c>
+      <c r="D75" s="1">
+        <v>100</v>
+      </c>
+      <c r="E75" s="1">
+        <v>100</v>
+      </c>
+      <c r="F75" s="1">
+        <v>100</v>
+      </c>
+      <c r="G75" s="1">
+        <v>100</v>
+      </c>
+      <c r="H75" s="1">
+        <v>100</v>
+      </c>
+      <c r="I75" s="1">
+        <v>100</v>
+      </c>
+      <c r="J75" s="1">
+        <v>150</v>
+      </c>
+      <c r="K75" s="1">
+        <v>0</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N75" s="1">
+        <v>100</v>
+      </c>
+      <c r="O75" s="1">
+        <v>4</v>
+      </c>
+      <c r="P75" s="1">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/xls/cardsConfig.xlsx
+++ b/xls/cardsConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="145">
   <si>
     <t>id[.!][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -482,6 +482,10 @@
   </si>
   <si>
     <t>2,3,4,5,6,7,8,9,10,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试周瑜</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -847,10 +851,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:R76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M76" sqref="M76"/>
+    <sheetView tabSelected="1" topLeftCell="H43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q73" sqref="Q73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4619,10 +4623,10 @@
     </row>
     <row r="73" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>6001</v>
+        <v>5012</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C73" s="1">
         <v>200</v>
@@ -4655,24 +4659,26 @@
         <v>0</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="N73" s="1">
         <v>100</v>
       </c>
       <c r="O73" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P73" s="1">
-        <v>4</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
     </row>
     <row r="74" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C74" s="1">
         <v>200</v>
@@ -4705,7 +4711,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N74" s="1">
         <v>100</v>
@@ -4719,10 +4725,10 @@
     </row>
     <row r="75" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C75" s="1">
         <v>200</v>
@@ -4755,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N75" s="1">
         <v>100</v>
@@ -4764,6 +4770,56 @@
         <v>4</v>
       </c>
       <c r="P75" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>6003</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C76" s="1">
+        <v>200</v>
+      </c>
+      <c r="D76" s="1">
+        <v>100</v>
+      </c>
+      <c r="E76" s="1">
+        <v>100</v>
+      </c>
+      <c r="F76" s="1">
+        <v>100</v>
+      </c>
+      <c r="G76" s="1">
+        <v>100</v>
+      </c>
+      <c r="H76" s="1">
+        <v>100</v>
+      </c>
+      <c r="I76" s="1">
+        <v>100</v>
+      </c>
+      <c r="J76" s="1">
+        <v>150</v>
+      </c>
+      <c r="K76" s="1">
+        <v>0</v>
+      </c>
+      <c r="L76" s="1">
+        <v>0</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N76" s="1">
+        <v>100</v>
+      </c>
+      <c r="O76" s="1">
+        <v>4</v>
+      </c>
+      <c r="P76" s="1">
         <v>4</v>
       </c>
     </row>

--- a/xls/cardsConfig.xlsx
+++ b/xls/cardsConfig.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FBG\Server\kbengine\fbgServer\xls\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8370" yWindow="0" windowWidth="27765" windowHeight="13650"/>
+    <workbookView xWindow="13020" yWindow="0" windowWidth="27765" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="@球员表" sheetId="1" r:id="rId1"/>
     <sheet name="代对表=" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="148">
   <si>
     <t>id[.!][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -132,14 +137,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tech[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>health[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>技术</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -486,6 +483,26 @@
   </si>
   <si>
     <t>测试周瑜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tech[.][funcFloat]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>health[.][funcFloat]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill2ID[][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill1ID[][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -552,6 +569,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -564,14 +649,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -606,7 +691,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -641,7 +726,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -851,10 +936,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:R76"/>
+  <dimension ref="A1:T76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q73" sqref="Q73"/>
+    <sheetView tabSelected="1" topLeftCell="L74" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T85" sqref="T85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -873,9 +958,10 @@
     <col min="15" max="15" width="25.75" customWidth="1"/>
     <col min="16" max="16" width="20.875" customWidth="1"/>
     <col min="17" max="17" width="20.125" customWidth="1"/>
+    <col min="19" max="20" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,10 +991,10 @@
         <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>143</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>24</v>
@@ -924,8 +1010,14 @@
       </c>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -957,10 +1049,10 @@
         <v>16</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>17</v>
@@ -980,13 +1072,19 @@
       <c r="R2" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="1">
         <v>200</v>
@@ -1019,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N3" s="1">
         <v>100</v>
@@ -1032,13 +1130,19 @@
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S3" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T3" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1">
         <v>200</v>
@@ -1071,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N4" s="1">
         <v>100</v>
@@ -1084,13 +1188,19 @@
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S4" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1">
         <v>200</v>
@@ -1123,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N5" s="1">
         <v>100</v>
@@ -1136,13 +1246,19 @@
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S5" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1">
         <v>200</v>
@@ -1175,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N6" s="1">
         <v>100</v>
@@ -1188,13 +1304,19 @@
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S6" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="1">
         <v>200</v>
@@ -1227,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N7" s="1">
         <v>100</v>
@@ -1240,13 +1362,19 @@
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S7" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T7" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1">
         <v>200</v>
@@ -1279,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N8" s="1">
         <v>100</v>
@@ -1292,13 +1420,19 @@
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S8" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1">
         <v>200</v>
@@ -1331,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N9" s="1">
         <v>100</v>
@@ -1344,13 +1478,19 @@
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S9" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T9" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1">
         <v>200</v>
@@ -1383,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N10" s="1">
         <v>100</v>
@@ -1396,13 +1536,19 @@
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S10" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T10" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="1">
         <v>200</v>
@@ -1435,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N11" s="1">
         <v>100</v>
@@ -1448,13 +1594,19 @@
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S11" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T11" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="1">
         <v>200</v>
@@ -1487,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="N12" s="1">
         <v>100</v>
@@ -1500,13 +1652,19 @@
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S12" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1">
         <v>200</v>
@@ -1539,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N13" s="1">
         <v>100</v>
@@ -1552,13 +1710,19 @@
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S13" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T13" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1">
         <v>200</v>
@@ -1591,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N14" s="1">
         <v>100</v>
@@ -1604,13 +1768,19 @@
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S14" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1">
         <v>200</v>
@@ -1643,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N15" s="1">
         <v>100</v>
@@ -1656,13 +1826,19 @@
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S15" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1">
         <v>200</v>
@@ -1695,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N16" s="1">
         <v>100</v>
@@ -1708,13 +1884,19 @@
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S16" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C17" s="1">
         <v>200</v>
@@ -1747,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N17" s="1">
         <v>100</v>
@@ -1760,13 +1942,19 @@
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S17" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T17" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1">
         <v>200</v>
@@ -1799,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N18" s="1">
         <v>100</v>
@@ -1812,13 +2000,19 @@
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S18" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1">
         <v>200</v>
@@ -1851,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N19" s="1">
         <v>100</v>
@@ -1864,13 +2058,19 @@
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S19" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1">
         <v>200</v>
@@ -1903,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N20" s="1">
         <v>100</v>
@@ -1916,13 +2116,19 @@
       </c>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S20" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T20" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C21" s="1">
         <v>200</v>
@@ -1955,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N21" s="1">
         <v>100</v>
@@ -1968,13 +2174,19 @@
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S21" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1">
         <v>200</v>
@@ -2007,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N22" s="1">
         <v>100</v>
@@ -2020,13 +2232,19 @@
       </c>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S22" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T22" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C23" s="1">
         <v>200</v>
@@ -2059,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N23" s="1">
         <v>100</v>
@@ -2072,13 +2290,19 @@
       </c>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S23" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T23" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2001</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" s="1">
         <v>200</v>
@@ -2111,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="N24" s="1">
         <v>100</v>
@@ -2124,13 +2348,19 @@
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S24" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2002</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1">
         <v>200</v>
@@ -2163,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N25" s="1">
         <v>100</v>
@@ -2176,13 +2406,19 @@
       </c>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S25" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2003</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="1">
         <v>200</v>
@@ -2215,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N26" s="1">
         <v>100</v>
@@ -2228,13 +2464,19 @@
       </c>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S26" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T26" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2004</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="1">
         <v>200</v>
@@ -2267,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N27" s="1">
         <v>100</v>
@@ -2280,13 +2522,19 @@
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S27" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T27" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2005</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1">
         <v>200</v>
@@ -2319,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N28" s="1">
         <v>100</v>
@@ -2332,13 +2580,19 @@
       </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-    </row>
-    <row r="29" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S28" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T28" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2006</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1">
         <v>200</v>
@@ -2371,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N29" s="1">
         <v>100</v>
@@ -2384,13 +2638,19 @@
       </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
-    </row>
-    <row r="30" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S29" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2007</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C30" s="1">
         <v>200</v>
@@ -2423,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="N30" s="1">
         <v>100</v>
@@ -2436,13 +2696,19 @@
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S30" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T30" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2008</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1">
         <v>200</v>
@@ -2475,7 +2741,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N31" s="1">
         <v>100</v>
@@ -2488,13 +2754,19 @@
       </c>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S31" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T31" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2009</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" s="1">
         <v>200</v>
@@ -2527,7 +2799,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N32" s="1">
         <v>100</v>
@@ -2540,13 +2812,19 @@
       </c>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
-    </row>
-    <row r="33" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S32" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T32" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2010</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="1">
         <v>200</v>
@@ -2579,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N33" s="1">
         <v>100</v>
@@ -2592,13 +2870,19 @@
       </c>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S33" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T33" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2011</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C34" s="1">
         <v>200</v>
@@ -2631,7 +2915,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N34" s="1">
         <v>100</v>
@@ -2644,13 +2928,19 @@
       </c>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
-    </row>
-    <row r="35" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S34" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T34" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2012</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C35" s="1">
         <v>200</v>
@@ -2683,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N35" s="1">
         <v>100</v>
@@ -2696,13 +2986,19 @@
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S35" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T35" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2013</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C36" s="1">
         <v>200</v>
@@ -2735,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N36" s="1">
         <v>100</v>
@@ -2748,13 +3044,19 @@
       </c>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S36" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T36" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2014</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C37" s="1">
         <v>200</v>
@@ -2787,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N37" s="1">
         <v>100</v>
@@ -2800,13 +3102,19 @@
       </c>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
-    </row>
-    <row r="38" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S37" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T37" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2015</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" s="1">
         <v>200</v>
@@ -2839,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N38" s="1">
         <v>100</v>
@@ -2852,13 +3160,19 @@
       </c>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
-    </row>
-    <row r="39" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S38" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T38" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2016</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C39" s="1">
         <v>200</v>
@@ -2891,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N39" s="1">
         <v>100</v>
@@ -2904,13 +3218,19 @@
       </c>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
-    </row>
-    <row r="40" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S39" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T39" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>3001</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C40" s="1">
         <v>200</v>
@@ -2943,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N40" s="1">
         <v>100</v>
@@ -2956,13 +3276,19 @@
       </c>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
-    </row>
-    <row r="41" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S40" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T40" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>3002</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1">
         <v>200</v>
@@ -2995,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N41" s="1">
         <v>100</v>
@@ -3008,13 +3334,19 @@
       </c>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
-    </row>
-    <row r="42" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S41" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T41" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>3003</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C42" s="1">
         <v>200</v>
@@ -3047,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="N42" s="1">
         <v>100</v>
@@ -3060,13 +3392,19 @@
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
-    </row>
-    <row r="43" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S42" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T42" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>3004</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C43" s="1">
         <v>200</v>
@@ -3099,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N43" s="1">
         <v>100</v>
@@ -3112,13 +3450,19 @@
       </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
-    </row>
-    <row r="44" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S43" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T43" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>3005</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C44" s="1">
         <v>200</v>
@@ -3151,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N44" s="1">
         <v>100</v>
@@ -3164,13 +3508,19 @@
       </c>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
-    </row>
-    <row r="45" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S44" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T44" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>3006</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C45" s="1">
         <v>200</v>
@@ -3203,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N45" s="1">
         <v>100</v>
@@ -3216,13 +3566,19 @@
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
-    </row>
-    <row r="46" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S45" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T45" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>3007</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C46" s="1">
         <v>200</v>
@@ -3255,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N46" s="1">
         <v>100</v>
@@ -3268,13 +3624,19 @@
       </c>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-    </row>
-    <row r="47" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S46" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T46" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>3008</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C47" s="1">
         <v>200</v>
@@ -3307,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N47" s="1">
         <v>100</v>
@@ -3320,13 +3682,19 @@
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
-    </row>
-    <row r="48" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S47" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T47" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>3009</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C48" s="1">
         <v>200</v>
@@ -3359,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N48" s="1">
         <v>100</v>
@@ -3372,13 +3740,19 @@
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
-    </row>
-    <row r="49" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S48" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T48" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>3010</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C49" s="1">
         <v>200</v>
@@ -3411,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="N49" s="1">
         <v>100</v>
@@ -3424,13 +3798,19 @@
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
-    </row>
-    <row r="50" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S49" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T49" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>3011</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C50" s="1">
         <v>200</v>
@@ -3463,7 +3843,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="N50" s="1">
         <v>100</v>
@@ -3476,13 +3856,19 @@
       </c>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
-    </row>
-    <row r="51" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S50" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T50" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>3012</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C51" s="1">
         <v>200</v>
@@ -3515,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N51" s="1">
         <v>100</v>
@@ -3528,13 +3914,19 @@
       </c>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
-    </row>
-    <row r="52" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S51" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T51" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>3013</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C52" s="1">
         <v>200</v>
@@ -3567,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N52" s="1">
         <v>100</v>
@@ -3580,13 +3972,19 @@
       </c>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
-    </row>
-    <row r="53" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S52" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T52" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>4001</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C53" s="1">
         <v>200</v>
@@ -3619,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N53" s="1">
         <v>100</v>
@@ -3632,13 +4030,19 @@
       </c>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
-    </row>
-    <row r="54" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S53" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T53" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>4002</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C54" s="1">
         <v>200</v>
@@ -3671,7 +4075,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="N54" s="1">
         <v>100</v>
@@ -3684,13 +4088,19 @@
       </c>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
-    </row>
-    <row r="55" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S54" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T54" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>4003</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C55" s="1">
         <v>200</v>
@@ -3723,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N55" s="1">
         <v>100</v>
@@ -3736,13 +4146,19 @@
       </c>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
-    </row>
-    <row r="56" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S55" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T55" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>4004</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C56" s="1">
         <v>200</v>
@@ -3775,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="N56" s="1">
         <v>100</v>
@@ -3788,13 +4204,19 @@
       </c>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
-    </row>
-    <row r="57" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S56" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T56" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>4005</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C57" s="1">
         <v>200</v>
@@ -3827,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N57" s="1">
         <v>100</v>
@@ -3840,13 +4262,19 @@
       </c>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
-    </row>
-    <row r="58" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S57" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T57" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>4006</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C58" s="1">
         <v>200</v>
@@ -3879,7 +4307,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N58" s="1">
         <v>100</v>
@@ -3892,13 +4320,19 @@
       </c>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
-    </row>
-    <row r="59" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S58" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T58" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>4007</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C59" s="1">
         <v>200</v>
@@ -3931,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N59" s="1">
         <v>100</v>
@@ -3944,13 +4378,19 @@
       </c>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
-    </row>
-    <row r="60" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S59" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T59" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>4008</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C60" s="1">
         <v>200</v>
@@ -3983,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="N60" s="1">
         <v>100</v>
@@ -3996,13 +4436,19 @@
       </c>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
-    </row>
-    <row r="61" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S60" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T60" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>4009</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C61" s="1">
         <v>200</v>
@@ -4035,7 +4481,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N61" s="1">
         <v>100</v>
@@ -4048,13 +4494,19 @@
       </c>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
-    </row>
-    <row r="62" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S61" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T61" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>5001</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1">
         <v>200</v>
@@ -4087,7 +4539,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="N62" s="1">
         <v>100</v>
@@ -4100,13 +4552,19 @@
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
-    </row>
-    <row r="63" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S62" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T62" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>5002</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C63" s="1">
         <v>200</v>
@@ -4139,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="N63" s="1">
         <v>100</v>
@@ -4152,13 +4610,19 @@
       </c>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
-    </row>
-    <row r="64" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S63" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T63" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>5003</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C64" s="1">
         <v>200</v>
@@ -4191,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N64" s="1">
         <v>100</v>
@@ -4204,13 +4668,19 @@
       </c>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
-    </row>
-    <row r="65" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S64" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T64" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>5004</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C65" s="1">
         <v>200</v>
@@ -4243,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N65" s="1">
         <v>100</v>
@@ -4256,13 +4726,19 @@
       </c>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
-    </row>
-    <row r="66" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S65" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T65" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>5005</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C66" s="1">
         <v>200</v>
@@ -4295,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="N66" s="1">
         <v>100</v>
@@ -4308,13 +4784,19 @@
       </c>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
-    </row>
-    <row r="67" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S66" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T66" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>5006</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C67" s="1">
         <v>200</v>
@@ -4347,7 +4829,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N67" s="1">
         <v>100</v>
@@ -4360,13 +4842,19 @@
       </c>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
-    </row>
-    <row r="68" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S67" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T67" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>5007</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C68" s="1">
         <v>200</v>
@@ -4399,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N68" s="1">
         <v>100</v>
@@ -4412,13 +4900,19 @@
       </c>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
-    </row>
-    <row r="69" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S68" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T68" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>5008</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C69" s="1">
         <v>200</v>
@@ -4451,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="N69" s="1">
         <v>100</v>
@@ -4464,13 +4958,19 @@
       </c>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
-    </row>
-    <row r="70" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S69" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T69" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>5009</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C70" s="1">
         <v>200</v>
@@ -4503,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N70" s="1">
         <v>100</v>
@@ -4516,13 +5016,19 @@
       </c>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
-    </row>
-    <row r="71" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S70" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T70" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>5010</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C71" s="1">
         <v>200</v>
@@ -4555,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N71" s="1">
         <v>100</v>
@@ -4568,13 +5074,19 @@
       </c>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
-    </row>
-    <row r="72" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S71" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T71" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>5011</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C72" s="1">
         <v>200</v>
@@ -4607,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N72" s="1">
         <v>100</v>
@@ -4620,13 +5132,19 @@
       </c>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
-    </row>
-    <row r="73" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S72" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T72" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>5012</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C73" s="1">
         <v>200</v>
@@ -4659,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N73" s="1">
         <v>100</v>
@@ -4672,13 +5190,19 @@
       </c>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
-    </row>
-    <row r="74" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S73" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T73" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>6001</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C74" s="1">
         <v>200</v>
@@ -4711,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N74" s="1">
         <v>100</v>
@@ -4722,13 +5246,19 @@
       <c r="P74" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S74" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T74" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>6002</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C75" s="1">
         <v>200</v>
@@ -4761,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N75" s="1">
         <v>100</v>
@@ -4772,13 +5302,19 @@
       <c r="P75" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="S75" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T75" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>6003</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C76" s="1">
         <v>200</v>
@@ -4811,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N76" s="1">
         <v>100</v>
@@ -4821,6 +5357,12 @@
       </c>
       <c r="P76" s="1">
         <v>4</v>
+      </c>
+      <c r="S76" s="1">
+        <v>1001</v>
+      </c>
+      <c r="T76" s="1">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>

--- a/xls/cardsConfig.xlsx
+++ b/xls/cardsConfig.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13020" yWindow="0" windowWidth="27765" windowHeight="13650"/>
+    <workbookView xWindow="-30" yWindow="6135" windowWidth="28830" windowHeight="6555"/>
   </bookViews>
   <sheets>
     <sheet name="@球员表" sheetId="1" r:id="rId1"/>
     <sheet name="代对表=" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="157">
   <si>
     <t>id[.!][funcInt]</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -503,6 +503,42 @@
   </si>
   <si>
     <t>skill1ID[][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill3ID[][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill4ID[][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,19,20,22,23,24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17,21,22,23,24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1-1ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1-2ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能1-3ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill13ID[][funcInt]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill12ID[][funcInt]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -936,10 +972,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T76"/>
+  <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L74" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T85" sqref="T85"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -958,10 +994,14 @@
     <col min="15" max="15" width="25.75" customWidth="1"/>
     <col min="16" max="16" width="20.875" customWidth="1"/>
     <col min="17" max="17" width="20.125" customWidth="1"/>
-    <col min="19" max="20" width="20.75" customWidth="1"/>
+    <col min="18" max="18" width="9" customWidth="1"/>
+    <col min="19" max="22" width="20.75" customWidth="1"/>
+    <col min="23" max="24" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.75" customWidth="1"/>
+    <col min="26" max="26" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1014,10 +1054,23 @@
         <v>147</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="W1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,13 +1126,26 @@
         <v>21</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="X2" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -1117,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="N3" s="1">
         <v>100</v>
@@ -1131,13 +1197,26 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T3" s="1">
         <v>1002</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>3001</v>
+      </c>
+      <c r="X3" s="1">
+        <v>3003</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3" t="str">
+        <f>S3&amp;","&amp;W3&amp;","&amp;X3</f>
+        <v>1002,3001,3003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -1175,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="N4" s="1">
         <v>100</v>
@@ -1191,11 +1270,24 @@
       <c r="S4" s="1">
         <v>1001</v>
       </c>
-      <c r="T4" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1">
+        <v>0</v>
+      </c>
+      <c r="W4" s="1">
+        <v>3001</v>
+      </c>
+      <c r="X4" s="1">
+        <v>3002</v>
+      </c>
+      <c r="Y4" s="1"/>
+      <c r="Z4" t="str">
+        <f t="shared" ref="Z4:Z23" si="0">S4&amp;","&amp;W4&amp;","&amp;X4</f>
+        <v>1001,3001,3002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -1247,13 +1339,26 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T5" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1003</v>
+      </c>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>3001</v>
+      </c>
+      <c r="X5" s="1">
+        <v>3003</v>
+      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5" t="str">
+        <f t="shared" si="0"/>
+        <v>1003,3001,3003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -1305,13 +1410,26 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T6" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>3003</v>
+      </c>
+      <c r="X6" s="1">
+        <v>3005</v>
+      </c>
+      <c r="Y6" s="1"/>
+      <c r="Z6" t="str">
+        <f t="shared" si="0"/>
+        <v>1004,3003,3005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1363,13 +1481,26 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T7" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1005</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1">
+        <v>0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>3002</v>
+      </c>
+      <c r="X7" s="1">
+        <v>3003</v>
+      </c>
+      <c r="Y7" s="1"/>
+      <c r="Z7" t="str">
+        <f t="shared" si="0"/>
+        <v>1005,3002,3003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1421,13 +1552,26 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T8" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1006</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1">
+        <v>0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>3001</v>
+      </c>
+      <c r="X8" s="1">
+        <v>3002</v>
+      </c>
+      <c r="Y8" s="1"/>
+      <c r="Z8" t="str">
+        <f t="shared" si="0"/>
+        <v>1006,3001,3002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1479,13 +1623,26 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="S9" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T9" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1007</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1">
+        <v>0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>3001</v>
+      </c>
+      <c r="X9" s="1">
+        <v>3003</v>
+      </c>
+      <c r="Y9" s="1"/>
+      <c r="Z9" t="str">
+        <f t="shared" si="0"/>
+        <v>1007,3001,3003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1537,13 +1694,26 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T10" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1008</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>3001</v>
+      </c>
+      <c r="X10" s="1">
+        <v>3007</v>
+      </c>
+      <c r="Y10" s="1"/>
+      <c r="Z10" t="str">
+        <f t="shared" si="0"/>
+        <v>1008,3001,3007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -1595,13 +1765,26 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T11" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1009</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>3001</v>
+      </c>
+      <c r="X11" s="1">
+        <v>3002</v>
+      </c>
+      <c r="Y11" s="1"/>
+      <c r="Z11" t="str">
+        <f t="shared" si="0"/>
+        <v>1009,3001,3002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
@@ -1653,13 +1836,26 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T12" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1010</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>3001</v>
+      </c>
+      <c r="X12" s="1">
+        <v>3003</v>
+      </c>
+      <c r="Y12" s="1"/>
+      <c r="Z12" t="str">
+        <f t="shared" si="0"/>
+        <v>1010,3001,3003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1011</v>
       </c>
@@ -1711,13 +1907,26 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T13" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1011</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1">
+        <v>0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>3006</v>
+      </c>
+      <c r="X13" s="1">
+        <v>3007</v>
+      </c>
+      <c r="Y13" s="1"/>
+      <c r="Z13" t="str">
+        <f t="shared" si="0"/>
+        <v>1011,3006,3007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1012</v>
       </c>
@@ -1769,13 +1978,26 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T14" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1012</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>3002</v>
+      </c>
+      <c r="X14" s="1">
+        <v>3007</v>
+      </c>
+      <c r="Y14" s="1"/>
+      <c r="Z14" t="str">
+        <f t="shared" si="0"/>
+        <v>1012,3002,3007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>1013</v>
       </c>
@@ -1827,13 +2049,26 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T15" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1013</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>3005</v>
+      </c>
+      <c r="X15" s="1">
+        <v>3006</v>
+      </c>
+      <c r="Y15" s="1"/>
+      <c r="Z15" t="str">
+        <f t="shared" si="0"/>
+        <v>1013,3005,3006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>1014</v>
       </c>
@@ -1885,13 +2120,26 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T16" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1014</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>3004</v>
+      </c>
+      <c r="X16" s="1">
+        <v>3007</v>
+      </c>
+      <c r="Y16" s="1"/>
+      <c r="Z16" t="str">
+        <f t="shared" si="0"/>
+        <v>1014,3004,3007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>1015</v>
       </c>
@@ -1943,13 +2191,26 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
       <c r="S17" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T17" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1015</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>3004</v>
+      </c>
+      <c r="X17" s="1">
+        <v>3006</v>
+      </c>
+      <c r="Y17" s="1"/>
+      <c r="Z17" t="str">
+        <f t="shared" si="0"/>
+        <v>1015,3004,3006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1016</v>
       </c>
@@ -2001,13 +2262,26 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
       <c r="S18" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T18" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1016</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>3004</v>
+      </c>
+      <c r="X18" s="1">
+        <v>3005</v>
+      </c>
+      <c r="Y18" s="1"/>
+      <c r="Z18" t="str">
+        <f t="shared" si="0"/>
+        <v>1016,3004,3005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1017</v>
       </c>
@@ -2059,13 +2333,26 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
       <c r="S19" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T19" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1017</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>3004</v>
+      </c>
+      <c r="X19" s="1">
+        <v>3006</v>
+      </c>
+      <c r="Y19" s="1"/>
+      <c r="Z19" t="str">
+        <f t="shared" si="0"/>
+        <v>1017,3004,3006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1018</v>
       </c>
@@ -2117,13 +2404,26 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
       <c r="S20" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T20" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1018</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>3005</v>
+      </c>
+      <c r="X20" s="1">
+        <v>3006</v>
+      </c>
+      <c r="Y20" s="1"/>
+      <c r="Z20" t="str">
+        <f t="shared" si="0"/>
+        <v>1018,3005,3006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1019</v>
       </c>
@@ -2175,13 +2475,26 @@
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T21" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1019</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>3004</v>
+      </c>
+      <c r="X21" s="1">
+        <v>3006</v>
+      </c>
+      <c r="Y21" s="1"/>
+      <c r="Z21" t="str">
+        <f t="shared" si="0"/>
+        <v>1019,3004,3006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1020</v>
       </c>
@@ -2233,13 +2546,26 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T22" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1020</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>3004</v>
+      </c>
+      <c r="X22" s="1">
+        <v>3005</v>
+      </c>
+      <c r="Y22" s="1"/>
+      <c r="Z22" t="str">
+        <f t="shared" si="0"/>
+        <v>1020,3004,3005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1021</v>
       </c>
@@ -2291,13 +2617,26 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
       <c r="S23" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T23" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1021</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>3007</v>
+      </c>
+      <c r="X23" s="1">
+        <v>3008</v>
+      </c>
+      <c r="Y23" s="1"/>
+      <c r="Z23" t="str">
+        <f t="shared" si="0"/>
+        <v>1021,3007,3008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2001</v>
       </c>
@@ -2349,13 +2688,26 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
       <c r="S24" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T24" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1022</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>3009</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1"/>
+      <c r="Z24" t="str">
+        <f>S24&amp;","&amp;W24</f>
+        <v>1022,3009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2002</v>
       </c>
@@ -2407,13 +2759,26 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T25" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1023</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>3009</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1"/>
+      <c r="Z25" t="str">
+        <f t="shared" ref="Z25:Z52" si="1">S25&amp;","&amp;W25</f>
+        <v>1023,3009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2003</v>
       </c>
@@ -2465,13 +2830,26 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T26" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1024</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1">
+        <v>3011</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1"/>
+      <c r="Z26" t="str">
+        <f t="shared" si="1"/>
+        <v>1024,3011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2004</v>
       </c>
@@ -2523,13 +2901,26 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T27" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1025</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>3011</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1"/>
+      <c r="Z27" t="str">
+        <f t="shared" si="1"/>
+        <v>1025,3011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>2005</v>
       </c>
@@ -2581,13 +2972,26 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T28" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1026</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>3009</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1"/>
+      <c r="Z28" t="str">
+        <f t="shared" si="1"/>
+        <v>1026,3009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2006</v>
       </c>
@@ -2639,13 +3043,26 @@
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T29" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1027</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1">
+        <v>0</v>
+      </c>
+      <c r="W29" s="1">
+        <v>3015</v>
+      </c>
+      <c r="X29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1"/>
+      <c r="Z29" t="str">
+        <f t="shared" si="1"/>
+        <v>1027,3015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2007</v>
       </c>
@@ -2697,13 +3114,26 @@
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T30" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1028</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1">
+        <v>3013</v>
+      </c>
+      <c r="X30" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="1"/>
+      <c r="Z30" t="str">
+        <f t="shared" si="1"/>
+        <v>1028,3013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2008</v>
       </c>
@@ -2755,13 +3185,26 @@
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T31" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1029</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1">
+        <v>3010</v>
+      </c>
+      <c r="X31" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1"/>
+      <c r="Z31" t="str">
+        <f t="shared" si="1"/>
+        <v>1029,3010</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>2009</v>
       </c>
@@ -2813,13 +3256,26 @@
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T32" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1030</v>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1">
+        <v>0</v>
+      </c>
+      <c r="W32" s="1">
+        <v>3011</v>
+      </c>
+      <c r="X32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="1"/>
+      <c r="Z32" t="str">
+        <f t="shared" si="1"/>
+        <v>1030,3011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2010</v>
       </c>
@@ -2871,13 +3327,26 @@
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T33" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1031</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1">
+        <v>3012</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1"/>
+      <c r="Z33" t="str">
+        <f t="shared" si="1"/>
+        <v>1031,3012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>2011</v>
       </c>
@@ -2929,13 +3398,26 @@
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T34" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1032</v>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>3015</v>
+      </c>
+      <c r="X34" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1"/>
+      <c r="Z34" t="str">
+        <f t="shared" si="1"/>
+        <v>1032,3015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>2012</v>
       </c>
@@ -2987,13 +3469,26 @@
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
       <c r="S35" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T35" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1033</v>
+      </c>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1">
+        <v>3012</v>
+      </c>
+      <c r="X35" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1"/>
+      <c r="Z35" t="str">
+        <f t="shared" si="1"/>
+        <v>1033,3012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>2013</v>
       </c>
@@ -3045,13 +3540,26 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T36" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1034</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>3014</v>
+      </c>
+      <c r="X36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="1"/>
+      <c r="Z36" t="str">
+        <f t="shared" si="1"/>
+        <v>1034,3014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>2014</v>
       </c>
@@ -3103,13 +3611,26 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T37" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1035</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>3012</v>
+      </c>
+      <c r="X37" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1"/>
+      <c r="Z37" t="str">
+        <f t="shared" si="1"/>
+        <v>1035,3012</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>2015</v>
       </c>
@@ -3161,13 +3682,26 @@
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T38" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1036</v>
+      </c>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>3012</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1"/>
+      <c r="Z38" t="str">
+        <f t="shared" si="1"/>
+        <v>1036,3012</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>2016</v>
       </c>
@@ -3219,13 +3753,26 @@
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T39" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1037</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>3012</v>
+      </c>
+      <c r="X39" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="1"/>
+      <c r="Z39" t="str">
+        <f t="shared" si="1"/>
+        <v>1037,3012</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>3001</v>
       </c>
@@ -3277,13 +3824,26 @@
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
       <c r="S40" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T40" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1038</v>
+      </c>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <v>3009</v>
+      </c>
+      <c r="X40" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="1"/>
+      <c r="Z40" t="str">
+        <f t="shared" si="1"/>
+        <v>1038,3009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>3002</v>
       </c>
@@ -3335,13 +3895,26 @@
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
       <c r="S41" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T41" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1039</v>
+      </c>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>3009</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="1"/>
+      <c r="Z41" t="str">
+        <f t="shared" si="1"/>
+        <v>1039,3009</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>3003</v>
       </c>
@@ -3393,13 +3966,26 @@
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
       <c r="S42" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T42" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1040</v>
+      </c>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
+        <v>3009</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="1"/>
+      <c r="Z42" t="str">
+        <f t="shared" si="1"/>
+        <v>1040,3009</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>3004</v>
       </c>
@@ -3451,13 +4037,26 @@
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T43" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1041</v>
+      </c>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
+        <v>3011</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="1"/>
+      <c r="Z43" t="str">
+        <f t="shared" si="1"/>
+        <v>1041,3011</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>3005</v>
       </c>
@@ -3509,13 +4108,26 @@
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
       <c r="S44" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T44" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1042</v>
+      </c>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <v>3010</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="1"/>
+      <c r="Z44" t="str">
+        <f t="shared" si="1"/>
+        <v>1042,3010</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>3006</v>
       </c>
@@ -3567,13 +4179,26 @@
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
       <c r="S45" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T45" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1043</v>
+      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>3015</v>
+      </c>
+      <c r="X45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="1"/>
+      <c r="Z45" t="str">
+        <f t="shared" si="1"/>
+        <v>1043,3015</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>3007</v>
       </c>
@@ -3625,13 +4250,26 @@
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
       <c r="S46" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T46" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1044</v>
+      </c>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1">
+        <v>0</v>
+      </c>
+      <c r="W46" s="1">
+        <v>3011</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1"/>
+      <c r="Z46" t="str">
+        <f t="shared" si="1"/>
+        <v>1044,3011</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>3008</v>
       </c>
@@ -3683,13 +4321,26 @@
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
       <c r="S47" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T47" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1045</v>
+      </c>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>3010</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1"/>
+      <c r="Z47" t="str">
+        <f t="shared" si="1"/>
+        <v>1045,3010</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>3009</v>
       </c>
@@ -3741,13 +4392,26 @@
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
       <c r="S48" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T48" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1046</v>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>3014</v>
+      </c>
+      <c r="X48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="1"/>
+      <c r="Z48" t="str">
+        <f t="shared" si="1"/>
+        <v>1046,3014</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>3010</v>
       </c>
@@ -3799,13 +4463,26 @@
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
       <c r="S49" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T49" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1047</v>
+      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1">
+        <v>0</v>
+      </c>
+      <c r="W49" s="1">
+        <v>3012</v>
+      </c>
+      <c r="X49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="1"/>
+      <c r="Z49" t="str">
+        <f t="shared" si="1"/>
+        <v>1047,3012</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>3011</v>
       </c>
@@ -3857,13 +4534,26 @@
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
       <c r="S50" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T50" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1048</v>
+      </c>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1">
+        <v>0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>3013</v>
+      </c>
+      <c r="X50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="1"/>
+      <c r="Z50" t="str">
+        <f t="shared" si="1"/>
+        <v>1048,3013</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>3012</v>
       </c>
@@ -3915,13 +4605,26 @@
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T51" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1049</v>
+      </c>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1">
+        <v>0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>3012</v>
+      </c>
+      <c r="X51" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="1"/>
+      <c r="Z51" t="str">
+        <f t="shared" si="1"/>
+        <v>1049,3012</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>3013</v>
       </c>
@@ -3973,13 +4676,26 @@
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
       <c r="S52" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T52" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1050</v>
+      </c>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1">
+        <v>0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>3012</v>
+      </c>
+      <c r="X52" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="1"/>
+      <c r="Z52" t="str">
+        <f t="shared" si="1"/>
+        <v>1050,3012</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>4001</v>
       </c>
@@ -4031,13 +4747,26 @@
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
       <c r="S53" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T53" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1051</v>
+      </c>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1">
+        <v>0</v>
+      </c>
+      <c r="W53" s="1">
+        <v>0</v>
+      </c>
+      <c r="X53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="1"/>
+      <c r="Z53">
+        <f>S53</f>
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>4002</v>
       </c>
@@ -4089,13 +4818,26 @@
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
       <c r="S54" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T54" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1052</v>
+      </c>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1">
+        <v>0</v>
+      </c>
+      <c r="W54" s="1">
+        <v>0</v>
+      </c>
+      <c r="X54" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="1"/>
+      <c r="Z54">
+        <f t="shared" ref="Z54:Z73" si="2">S54</f>
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>4003</v>
       </c>
@@ -4147,13 +4889,26 @@
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
       <c r="S55" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T55" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1052</v>
+      </c>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1">
+        <v>0</v>
+      </c>
+      <c r="W55" s="1">
+        <v>0</v>
+      </c>
+      <c r="X55" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="1"/>
+      <c r="Z55">
+        <f t="shared" si="2"/>
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>4004</v>
       </c>
@@ -4205,13 +4960,26 @@
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
       <c r="S56" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T56" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1053</v>
+      </c>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1">
+        <v>0</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="1"/>
+      <c r="Z56">
+        <f t="shared" si="2"/>
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>4005</v>
       </c>
@@ -4263,13 +5031,26 @@
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
       <c r="S57" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T57" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1054</v>
+      </c>
+      <c r="T57" s="1"/>
+      <c r="U57" s="1"/>
+      <c r="V57" s="1">
+        <v>0</v>
+      </c>
+      <c r="W57" s="1">
+        <v>0</v>
+      </c>
+      <c r="X57" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="1"/>
+      <c r="Z57">
+        <f t="shared" si="2"/>
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>4006</v>
       </c>
@@ -4321,13 +5102,26 @@
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
       <c r="S58" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T58" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1054</v>
+      </c>
+      <c r="T58" s="1"/>
+      <c r="U58" s="1"/>
+      <c r="V58" s="1">
+        <v>0</v>
+      </c>
+      <c r="W58" s="1">
+        <v>0</v>
+      </c>
+      <c r="X58" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="1"/>
+      <c r="Z58">
+        <f t="shared" si="2"/>
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>4007</v>
       </c>
@@ -4379,13 +5173,26 @@
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
       <c r="S59" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T59" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1053</v>
+      </c>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1">
+        <v>0</v>
+      </c>
+      <c r="W59" s="1">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="1"/>
+      <c r="Z59">
+        <f t="shared" si="2"/>
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>4008</v>
       </c>
@@ -4437,13 +5244,26 @@
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
       <c r="S60" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T60" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1051</v>
+      </c>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+      <c r="V60" s="1">
+        <v>0</v>
+      </c>
+      <c r="W60" s="1">
+        <v>0</v>
+      </c>
+      <c r="X60" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="1"/>
+      <c r="Z60">
+        <f t="shared" si="2"/>
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>4009</v>
       </c>
@@ -4495,13 +5315,26 @@
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
       <c r="S61" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T61" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1055</v>
+      </c>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+      <c r="V61" s="1">
+        <v>0</v>
+      </c>
+      <c r="W61" s="1">
+        <v>0</v>
+      </c>
+      <c r="X61" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="1"/>
+      <c r="Z61">
+        <f t="shared" si="2"/>
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>5001</v>
       </c>
@@ -4553,13 +5386,26 @@
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
       <c r="S62" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T62" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1056</v>
+      </c>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1">
+        <v>0</v>
+      </c>
+      <c r="W62" s="1">
+        <v>0</v>
+      </c>
+      <c r="X62" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="1"/>
+      <c r="Z62">
+        <f t="shared" si="2"/>
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>5002</v>
       </c>
@@ -4611,13 +5457,26 @@
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
       <c r="S63" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T63" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1052</v>
+      </c>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1">
+        <v>0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>0</v>
+      </c>
+      <c r="X63" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="1"/>
+      <c r="Z63">
+        <f t="shared" si="2"/>
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>5003</v>
       </c>
@@ -4669,13 +5528,26 @@
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
       <c r="S64" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T64" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1057</v>
+      </c>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1">
+        <v>0</v>
+      </c>
+      <c r="W64" s="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="1"/>
+      <c r="Z64">
+        <f t="shared" si="2"/>
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>5004</v>
       </c>
@@ -4727,13 +5599,26 @@
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
       <c r="S65" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T65" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1057</v>
+      </c>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1">
+        <v>0</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="1"/>
+      <c r="Z65">
+        <f t="shared" si="2"/>
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>5005</v>
       </c>
@@ -4785,13 +5670,26 @@
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
       <c r="S66" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T66" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1052</v>
+      </c>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1">
+        <v>0</v>
+      </c>
+      <c r="W66" s="1">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="1"/>
+      <c r="Z66">
+        <f t="shared" si="2"/>
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>5006</v>
       </c>
@@ -4843,13 +5741,26 @@
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T67" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1058</v>
+      </c>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1">
+        <v>0</v>
+      </c>
+      <c r="W67" s="1">
+        <v>0</v>
+      </c>
+      <c r="X67" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="1"/>
+      <c r="Z67">
+        <f t="shared" si="2"/>
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>5007</v>
       </c>
@@ -4901,13 +5812,26 @@
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
       <c r="S68" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T68" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1051</v>
+      </c>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1">
+        <v>0</v>
+      </c>
+      <c r="W68" s="1">
+        <v>0</v>
+      </c>
+      <c r="X68" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="1"/>
+      <c r="Z68">
+        <f t="shared" si="2"/>
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>5008</v>
       </c>
@@ -4959,13 +5883,26 @@
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
       <c r="S69" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T69" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1051</v>
+      </c>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1">
+        <v>0</v>
+      </c>
+      <c r="W69" s="1">
+        <v>0</v>
+      </c>
+      <c r="X69" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="1"/>
+      <c r="Z69">
+        <f t="shared" si="2"/>
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>5009</v>
       </c>
@@ -5017,13 +5954,26 @@
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T70" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1058</v>
+      </c>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1">
+        <v>0</v>
+      </c>
+      <c r="W70" s="1">
+        <v>0</v>
+      </c>
+      <c r="X70" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="1"/>
+      <c r="Z70">
+        <f t="shared" si="2"/>
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>5010</v>
       </c>
@@ -5075,13 +6025,26 @@
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T71" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1053</v>
+      </c>
+      <c r="T71" s="1"/>
+      <c r="U71" s="1"/>
+      <c r="V71" s="1">
+        <v>0</v>
+      </c>
+      <c r="W71" s="1">
+        <v>0</v>
+      </c>
+      <c r="X71" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="1"/>
+      <c r="Z71">
+        <f t="shared" si="2"/>
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>5011</v>
       </c>
@@ -5133,13 +6096,26 @@
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
       <c r="S72" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T72" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1053</v>
+      </c>
+      <c r="T72" s="1"/>
+      <c r="U72" s="1"/>
+      <c r="V72" s="1">
+        <v>0</v>
+      </c>
+      <c r="W72" s="1">
+        <v>0</v>
+      </c>
+      <c r="X72" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="1"/>
+      <c r="Z72">
+        <f t="shared" si="2"/>
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>5012</v>
       </c>
@@ -5191,13 +6167,26 @@
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
       <c r="S73" s="1">
-        <v>1001</v>
-      </c>
-      <c r="T73" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>1053</v>
+      </c>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1">
+        <v>0</v>
+      </c>
+      <c r="W73" s="1">
+        <v>0</v>
+      </c>
+      <c r="X73" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="1"/>
+      <c r="Z73">
+        <f t="shared" si="2"/>
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>6001</v>
       </c>
@@ -5247,13 +6236,30 @@
         <v>4</v>
       </c>
       <c r="S74" s="1">
-        <v>1001</v>
+        <v>2101</v>
       </c>
       <c r="T74" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>2102</v>
+      </c>
+      <c r="U74" s="1">
+        <v>2103</v>
+      </c>
+      <c r="V74" s="1">
+        <v>0</v>
+      </c>
+      <c r="W74" s="1">
+        <v>3001</v>
+      </c>
+      <c r="X74" s="1">
+        <v>3002</v>
+      </c>
+      <c r="Y74" s="1"/>
+      <c r="Z74" t="str">
+        <f t="shared" ref="Z74:Z76" si="3">S74&amp;","&amp;W74&amp;","&amp;X74</f>
+        <v>2101,3001,3002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>6002</v>
       </c>
@@ -5303,13 +6309,30 @@
         <v>4</v>
       </c>
       <c r="S75" s="1">
-        <v>1001</v>
+        <v>2201</v>
       </c>
       <c r="T75" s="1">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+        <v>2202</v>
+      </c>
+      <c r="U75" s="1">
+        <v>2203</v>
+      </c>
+      <c r="V75" s="1">
+        <v>0</v>
+      </c>
+      <c r="W75" s="1">
+        <v>3001</v>
+      </c>
+      <c r="X75" s="1">
+        <v>3004</v>
+      </c>
+      <c r="Y75" s="1"/>
+      <c r="Z75" t="str">
+        <f t="shared" si="3"/>
+        <v>2201,3001,3004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>6003</v>
       </c>
@@ -5359,10 +6382,27 @@
         <v>4</v>
       </c>
       <c r="S76" s="1">
-        <v>1001</v>
+        <v>2301</v>
       </c>
       <c r="T76" s="1">
-        <v>1002</v>
+        <v>2302</v>
+      </c>
+      <c r="U76" s="1">
+        <v>2203</v>
+      </c>
+      <c r="V76" s="1">
+        <v>0</v>
+      </c>
+      <c r="W76" s="1">
+        <v>3004</v>
+      </c>
+      <c r="X76" s="1">
+        <v>3005</v>
+      </c>
+      <c r="Y76" s="1"/>
+      <c r="Z76" t="str">
+        <f t="shared" si="3"/>
+        <v>2301,3004,3005</v>
       </c>
     </row>
   </sheetData>
@@ -5427,7 +6467,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>

--- a/xls/cardsConfig.xlsx
+++ b/xls/cardsConfig.xlsx
@@ -974,8 +974,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Z76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="K58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
